--- a/data/trans_dic/P2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en su vivienda habitual</t>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>86,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>87,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>86,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>88,22%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>90,88%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>90,47%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>89,82%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>96,47%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,07; 96,26</t>
+          <t>90,02; 97,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,76; 93,45</t>
+          <t>67,66; 93,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,34; 95,24</t>
+          <t>68,54; 94,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76,29; 95,14</t>
+          <t>63,44; 94,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,33; 97,73</t>
+          <t>92,47; 98,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,8; 96,46</t>
+          <t>91,29; 97,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,3; 94,53</t>
+          <t>90,97; 97,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70,39; 94,44</t>
+          <t>88,73; 95,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,83; 96,43</t>
+          <t>88,31; 95,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>86,33; 94,2</t>
+          <t>92,23; 98,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>85,11; 94,13</t>
+          <t>92,65; 96,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>79,89; 93,67</t>
+          <t>81,53; 94,4</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>81,53; 94,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>78,32; 93,95</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>94,12; 98,03</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>96,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>93,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>96,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>97,27%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>96,11%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>95,05%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>94,26%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>95,23%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>94,65%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>94,39%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>92,95%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,37; 97,96</t>
+          <t>94,52; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,25; 98,5</t>
+          <t>91,81; 99,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,36; 98,28</t>
+          <t>90,36; 97,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,52; 96,86</t>
+          <t>90,15; 98,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,63; 97,52</t>
+          <t>88,47; 97,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,43; 97,32</t>
+          <t>92,24; 98,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,42; 96,08</t>
+          <t>91,54; 98,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,35; 95,34</t>
+          <t>89,91; 97,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,76; 97,04</t>
+          <t>88,0; 96,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,05; 97,11</t>
+          <t>91,9; 98,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>90,13; 96,34</t>
+          <t>94,85; 98,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>87,84; 95,3</t>
+          <t>93,55; 98,02</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>92,14; 97,24</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>91,28; 96,71</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>91,89; 97,39</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>97,43%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>85,5%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>80,24%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>97,4%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>97,4%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>97,07%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>96,99%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>88,84%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>85,37%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>90,55%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>89,48%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>88,19%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>87,8%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>92,89%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>97,42%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>91,36%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>88,46%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>98,4%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,96; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,36; 100,0</t>
+          <t>86,34; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,07; 95,69</t>
+          <t>65,03; 96,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>73,65; 93,76</t>
+          <t>54,36; 94,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,3; 96,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,81; 95,6</t>
+          <t>87,4; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,78; 94,92</t>
+          <t>87,22; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,37; 94,38</t>
+          <t>83,88; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>87,05; 96,85</t>
+          <t>84,41; 100,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>87,87; 97,01</t>
+          <t>80,91; 100,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>80,64; 93,33</t>
+          <t>93,2; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>78,08; 92,63</t>
+          <t>91,49; 100,0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>79,61; 97,02</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>74,01; 95,28</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>91,99; 100,0</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>89,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>93,7%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>92,44%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>91,49%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>96,19%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,57; 96,29</t>
+          <t>94,7; 98,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,17; 95,17</t>
+          <t>82,5; 95,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,6; 95,37</t>
+          <t>81,9; 94,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,93; 94,34</t>
+          <t>78,95; 94,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,07; 96,63</t>
+          <t>93,16; 98,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,53; 95,87</t>
+          <t>93,61; 97,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,73; 94,06</t>
+          <t>92,6; 97,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>79,27; 93,3</t>
+          <t>91,47; 96,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,11; 95,94</t>
+          <t>90,6; 95,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,09; 94,76</t>
+          <t>93,83; 97,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,19; 94,08</t>
+          <t>94,83; 97,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,0; 92,91</t>
+          <t>88,76; 95,71</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>88,1; 94,72</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>85,16; 94,0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>94,41; 97,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,98%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>348161</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>372110</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>321494</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>329396</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>499813</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>414027</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>481155</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>390728</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>378658</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>541618</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>762188</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>853266</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>712221</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>708053</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1041431</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>329252; 356990</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>290986; 404125</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>250969; 346824</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>241578; 360131</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>477089; 510646</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>397428; 423890</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>462894; 495570</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>373613; 403659</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>359844; 390591</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>519846; 553086</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>742219; 776532</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>765466; 886356</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>641868; 740313</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>617388; 740601</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1016054; 1058243</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>299404</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>347190</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>303671</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>307021</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>388906</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>337550</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>407065</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>320601</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>312859</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>416268</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>636954</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>754254</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>624272</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>619880</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>805174</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>288008; 304712</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>329967; 356280</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>287650; 311808</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>290824; 316197</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>364769; 402780</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>322921; 345772</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>389357; 417508</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>304277; 330374</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>294793; 324504</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>398100; 426766</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>621064; 646447</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>734124; 769196</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>605111; 638597</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>600253; 636005</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>776971; 823486</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>84826</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>99149</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>68060</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68680</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>119398</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>80467</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>98540</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>79166</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80067</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>107670</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>165293</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>197689</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>147226</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>148747</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>227068</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>87863; 101768</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51766; 77174</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46530; 80844</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>72206; 82611</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>88236; 101166</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68408; 81552</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>69685; 82553</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90096; 111352</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>156059; 167437</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>185665; 202934</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>128298; 156352</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>124440; 160211</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>212263; 230750</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>674.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>666.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>664.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>732391</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>818449</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>693225</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>705096</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1008118</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>832043</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>986759</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>790495</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>771584</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1065556</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1564435</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1805209</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1483719</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1476682</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2073673</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>715226; 743800</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>735280; 852862</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>625816; 722481</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>622925; 742115</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>975953; 1028492</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>812579; 846556</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>958766; 1004954</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>769329; 810031</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>747509; 791185</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1039801; 1084442</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1539402; 1583988</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1710037; 1843973</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1414158; 1520334</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1374545; 1517237</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2035402; 2101628</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
